--- a/data/03_final_scores.xlsx
+++ b/data/03_final_scores.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/movie_poster_neural_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6BC0E4-C9E3-B14A-8C2B-321707CC3237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5300F11-CB21-BF4E-BC0D-67DC86BEE85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="18520" windowHeight="21040" xr2:uid="{91C41C0F-3F50-3446-8DCD-60F039F14AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Final Score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Matt</t>
   </si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>The Ugly Truth (2009)</t>
+  </si>
+  <si>
+    <t>Final Score (Out of 19)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,44 +456,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <f>SUM(C2:J2)/19</f>
-        <v>0.73684210526315785</v>
+        <f>SUM(C2:J2)</f>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -505,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -523,13 +517,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
       <c r="B3">
-        <f>SUM(C3:J3)/19</f>
-        <v>0.73684210526315785</v>
+        <f t="shared" ref="B3:B7" si="0">SUM(C3:J3)</f>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -538,16 +532,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -558,29 +552,29 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f>SUM(C4:J4)/19</f>
-        <v>0.68421052631578949</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -591,17 +585,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <f>SUM(C5:J5)/19</f>
-        <v>0.68421052631578949</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -610,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -622,19 +616,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>SUM(C6:J6)/19</f>
-        <v>0.68421052631578949</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -643,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -652,31 +646,31 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <f>SUM(C7:J7)/19</f>
-        <v>0.63157894736842102</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -685,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
